--- a/src/main/resources/MSIGInputExcel - ScheduleRating & ExperianceRating.xlsx
+++ b/src/main/resources/MSIGInputExcel - ScheduleRating & ExperianceRating.xlsx
@@ -1855,8 +1855,8 @@
   <sheetPr/>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3035,12 +3035,12 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="19">
-        <f t="shared" ref="M35:M66" si="2">SUM(I35+J35+K35+L35)</f>
+        <f t="shared" ref="M35:M71" si="2">SUM(I35+J35+K35+L35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="17"/>
       <c r="O35" s="17" t="b">
-        <f t="shared" ref="O35:O66" si="3">(M35=N35)</f>
+        <f t="shared" ref="O35:O71" si="3">(M35=N35)</f>
         <v>1</v>
       </c>
     </row>
@@ -4091,12 +4091,12 @@
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="19">
-        <f>SUM(I67+J67+K67+L67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N67" s="17"/>
       <c r="O67" s="17" t="b">
-        <f>(M67=N67)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4124,12 +4124,12 @@
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="M68" s="19">
-        <f>SUM(I68+J68+K68+L68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N68" s="17"/>
       <c r="O68" s="17" t="b">
-        <f>(M68=N68)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
       <c r="M69" s="19">
-        <f>SUM(I69+J69+K69+L69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N69" s="17"/>
       <c r="O69" s="17" t="b">
-        <f>(M69=N69)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4190,12 +4190,12 @@
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="19">
-        <f>SUM(I70+J70+K70+L70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N70" s="17"/>
       <c r="O70" s="17" t="b">
-        <f>(M70=N70)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4223,12 +4223,12 @@
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
       <c r="M71" s="19">
-        <f>SUM(I71+J71+K71+L71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N71" s="17"/>
       <c r="O71" s="17" t="b">
-        <f>(M71=N71)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
